--- a/InputData/bldgs/ICpUEfEBE/Incr Cost per Unit E for Electrified Building Equipment.xlsx
+++ b/InputData/bldgs/ICpUEfEBE/Incr Cost per Unit E for Electrified Building Equipment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/bldgs/icpuefebe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/icpuefebe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67526CCE-0B4A-0444-A1BB-6B85EA650CE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF8F53A-86E0-6745-89F7-51B73C6CB60D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="17" r:id="rId1"/>

--- a/InputData/bldgs/ICpUEfEBE/Incr Cost per Unit E for Electrified Building Equipment.xlsx
+++ b/InputData/bldgs/ICpUEfEBE/Incr Cost per Unit E for Electrified Building Equipment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/icpuefebe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US-EPS\InputData\bldgs\ICpUEfEBE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF8F53A-86E0-6745-89F7-51B73C6CB60D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAFC919-6AFA-4DB9-9F07-543E9682FB63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="17" r:id="rId1"/>
@@ -1313,15 +1313,9 @@
     <t>Residential building equipment stock and average annual energy consumption</t>
   </si>
   <si>
-    <t>AEO 2020</t>
-  </si>
-  <si>
     <t>Tables 4 and 21</t>
   </si>
   <si>
-    <t>https://www.eia.gov/outlooks/aeo/</t>
-  </si>
-  <si>
     <t>Commercial heating and water heating heat pump costs</t>
   </si>
   <si>
@@ -2337,6 +2331,12 @@
   </si>
   <si>
     <t>30-AEO2021.101.highogs-d120120a</t>
+  </si>
+  <si>
+    <t>AEO 2021</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/tables_side.php</t>
   </si>
 </sst>
 </file>
@@ -2804,7 +2804,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3324,7 +3324,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Body: normal cell" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3711,26 +3710,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="69.5" customWidth="1"/>
-    <col min="4" max="4" width="61.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="69.42578125" customWidth="1"/>
+    <col min="4" max="4" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C1" s="203">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>275</v>
       </c>
@@ -3738,18 +3734,18 @@
         <v>277</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>276</v>
       </c>
       <c r="D4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2018</v>
       </c>
@@ -3757,229 +3753,229 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>278</v>
       </c>
       <c r="D6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>279</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>280</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>281</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>276</v>
       </c>
       <c r="D11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D12" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>622</v>
+      </c>
+      <c r="D13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>282</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>283</v>
-      </c>
-      <c r="D15" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.93665959530026111</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.95661376543184151</v>
       </c>
@@ -3987,12 +3983,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4007,15 +4002,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B1" s="1">
         <v>2019</v>
@@ -4116,9 +4111,9 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B2" s="124">
         <v>0</v>
@@ -4218,9 +4213,9 @@
       </c>
       <c r="AI2" s="122"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B3" s="123">
         <f>B4</f>
@@ -4351,7 +4346,7 @@
         <v>9.7423930916904569E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -4484,9 +4479,9 @@
         <v>9.7423930916904569E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B5" s="108">
         <f>Calculations!B38</f>
@@ -4617,9 +4612,9 @@
         <v>-3.2333580471562971E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B6" s="123">
         <f>B4</f>
@@ -4750,7 +4745,7 @@
         <v>9.7423930916904569E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>207</v>
       </c>
@@ -4883,9 +4878,9 @@
         <v>-3.2333580471562971E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B8" s="123">
         <f>B5</f>
@@ -5016,9 +5011,9 @@
         <v>-3.2333580471562971E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B9" s="123">
         <f>B5</f>
@@ -5149,9 +5144,9 @@
         <v>-3.2333580471562971E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B10" s="123">
         <f>B4</f>
@@ -5282,9 +5277,9 @@
         <v>9.7423930916904569E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B11" s="123">
         <f>B4</f>
@@ -5432,15 +5427,15 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B1" s="1">
         <v>2019</v>
@@ -5541,9 +5536,9 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B2" s="124">
         <v>0</v>
@@ -5643,9 +5638,9 @@
       </c>
       <c r="AI2" s="122"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B3" s="123">
         <f>B4</f>
@@ -5776,7 +5771,7 @@
         <v>6.8020768011389649E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -5909,9 +5904,9 @@
         <v>6.8020768011389649E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B5" s="108">
         <f>Calculations!B20</f>
@@ -6042,9 +6037,9 @@
         <v>1.538433798663804E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B6" s="123">
         <f>B4</f>
@@ -6175,7 +6170,7 @@
         <v>6.8020768011389649E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>207</v>
       </c>
@@ -6308,9 +6303,9 @@
         <v>1.1403423419222421E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B8" s="123">
         <f>B5</f>
@@ -6441,9 +6436,9 @@
         <v>1.538433798663804E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B9" s="123">
         <f>B5</f>
@@ -6574,9 +6569,9 @@
         <v>1.538433798663804E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B10" s="123">
         <f>B4</f>
@@ -6707,9 +6702,9 @@
         <v>6.8020768011389649E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B11" s="123">
         <f>B4</f>
@@ -6857,15 +6852,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B1" s="1">
         <v>2019</v>
@@ -6966,9 +6961,9 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B2" s="124">
         <v>0</v>
@@ -7068,9 +7063,9 @@
       </c>
       <c r="AI2" s="122"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B3" s="123">
         <f>B4</f>
@@ -7201,7 +7196,7 @@
         <v>9.7423930916904569E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -7334,9 +7329,9 @@
         <v>9.7423930916904569E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B5" s="108">
         <f>Calculations!B38</f>
@@ -7467,9 +7462,9 @@
         <v>-3.2333580471562971E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B6" s="123">
         <f>B4</f>
@@ -7600,7 +7595,7 @@
         <v>9.7423930916904569E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>207</v>
       </c>
@@ -7733,9 +7728,9 @@
         <v>-3.2333580471562971E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B8" s="123">
         <f>B5</f>
@@ -7866,9 +7861,9 @@
         <v>-3.2333580471562971E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B9" s="123">
         <f>B5</f>
@@ -7999,9 +7994,9 @@
         <v>-3.2333580471562971E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B10" s="123">
         <f>B4</f>
@@ -8132,9 +8127,9 @@
         <v>9.7423930916904569E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B11" s="123">
         <f>B4</f>
@@ -8282,15 +8277,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B1" s="1">
         <v>2019</v>
@@ -8391,9 +8386,9 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B2" s="124">
         <v>0</v>
@@ -8493,9 +8488,9 @@
       </c>
       <c r="AI2" s="122"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B3" s="123">
         <f>B4</f>
@@ -8626,7 +8621,7 @@
         <v>9.7423930916904569E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -8759,9 +8754,9 @@
         <v>9.7423930916904569E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B5" s="108">
         <f>Calculations!B38</f>
@@ -8892,9 +8887,9 @@
         <v>-3.2333580471562971E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B6" s="123">
         <f>B4</f>
@@ -9025,7 +9020,7 @@
         <v>9.7423930916904569E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>207</v>
       </c>
@@ -9158,9 +9153,9 @@
         <v>-3.2333580471562971E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B8" s="123">
         <f>B5</f>
@@ -9291,9 +9286,9 @@
         <v>-3.2333580471562971E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B9" s="123">
         <f>B5</f>
@@ -9424,9 +9419,9 @@
         <v>-3.2333580471562971E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B10" s="123">
         <f>B4</f>
@@ -9557,9 +9552,9 @@
         <v>9.7423930916904569E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B11" s="123">
         <f>B4</f>
@@ -9707,15 +9702,15 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B1" s="1">
         <v>2019</v>
@@ -9816,9 +9811,9 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B2" s="124">
         <v>0</v>
@@ -9918,9 +9913,9 @@
       </c>
       <c r="AI2" s="122"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B3" s="123">
         <f>B4</f>
@@ -10051,7 +10046,7 @@
         <v>7.42054085818039E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -10184,9 +10179,9 @@
         <v>7.42054085818039E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B5" s="108">
         <f>Calculations!B59</f>
@@ -10317,9 +10312,9 @@
         <v>5.9503274523152538E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B6" s="123">
         <f>B4</f>
@@ -10450,7 +10445,7 @@
         <v>7.42054085818039E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>207</v>
       </c>
@@ -10583,9 +10578,9 @@
         <v>5.9503274523152538E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B8" s="123">
         <f>B5</f>
@@ -10716,9 +10711,9 @@
         <v>5.9503274523152538E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B9" s="123">
         <f>B5</f>
@@ -10849,9 +10844,9 @@
         <v>5.9503274523152538E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B10" s="123">
         <f>B4</f>
@@ -10982,9 +10977,9 @@
         <v>7.42054085818039E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B11" s="123">
         <f>B4</f>
@@ -11132,15 +11127,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B1" s="1">
         <v>2019</v>
@@ -11241,9 +11236,9 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B2" s="124">
         <v>0</v>
@@ -11343,9 +11338,9 @@
       </c>
       <c r="AI2" s="122"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B3" s="123">
         <f>B4</f>
@@ -11476,7 +11471,7 @@
         <v>7.1784875139267208E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -11609,9 +11604,9 @@
         <v>7.1784875139267208E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B5" s="108">
         <f>Calculations!B79</f>
@@ -11742,9 +11737,9 @@
         <v>7.2699734292872698E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B6" s="123">
         <f>B4</f>
@@ -11875,7 +11870,7 @@
         <v>7.1784875139267208E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>207</v>
       </c>
@@ -12008,9 +12003,9 @@
         <v>7.2699734292872698E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B8" s="123">
         <f>B5</f>
@@ -12141,9 +12136,9 @@
         <v>7.2699734292872698E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B9" s="123">
         <f>B5</f>
@@ -12274,9 +12269,9 @@
         <v>7.2699734292872698E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B10" s="123">
         <f>B4</f>
@@ -12407,9 +12402,9 @@
         <v>7.1784875139267208E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B11" s="123">
         <f>B4</f>
@@ -12555,15 +12550,15 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B1" s="1">
         <v>2019</v>
@@ -12664,9 +12659,9 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B2" s="124">
         <v>0</v>
@@ -12766,9 +12761,9 @@
       </c>
       <c r="AI2" s="122"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B3" s="123">
         <f>B4</f>
@@ -12899,7 +12894,7 @@
         <v>7.1784875139267208E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -13032,9 +13027,9 @@
         <v>7.1784875139267208E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B5" s="108">
         <f>Calculations!B79</f>
@@ -13165,9 +13160,9 @@
         <v>7.2699734292872698E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B6" s="123">
         <f>B4</f>
@@ -13298,7 +13293,7 @@
         <v>7.1784875139267208E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>207</v>
       </c>
@@ -13431,9 +13426,9 @@
         <v>7.2699734292872698E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B8" s="123">
         <f>B5</f>
@@ -13564,9 +13559,9 @@
         <v>7.2699734292872698E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B9" s="123">
         <f>B5</f>
@@ -13697,9 +13692,9 @@
         <v>7.2699734292872698E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B10" s="123">
         <f>B4</f>
@@ -13830,9 +13825,9 @@
         <v>7.1784875139267208E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B11" s="123">
         <f>B4</f>
@@ -13975,13 +13970,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>196</v>
       </c>
@@ -14000,7 +13995,7 @@
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="181" t="s">
         <v>180</v>
       </c>
@@ -14033,7 +14028,7 @@
       </c>
       <c r="O2" s="171"/>
     </row>
-    <row r="3" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="182"/>
       <c r="B3" s="11" t="s">
         <v>181</v>
@@ -14078,7 +14073,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>187</v>
       </c>
@@ -14125,7 +14120,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>188</v>
       </c>
@@ -14172,7 +14167,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>189</v>
       </c>
@@ -14219,7 +14214,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="185" t="s">
         <v>190</v>
       </c>
@@ -14266,7 +14261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="186"/>
       <c r="B8" s="16">
         <v>27</v>
@@ -14311,7 +14306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>191</v>
       </c>
@@ -14358,7 +14353,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>192</v>
       </c>
@@ -14405,7 +14400,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>193</v>
       </c>
@@ -14452,7 +14447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>194</v>
       </c>
@@ -14471,7 +14466,7 @@
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="175" t="s">
         <v>180</v>
       </c>
@@ -14504,7 +14499,7 @@
       </c>
       <c r="O14" s="171"/>
     </row>
-    <row r="15" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="176"/>
       <c r="B15" s="11" t="s">
         <v>181</v>
@@ -14547,7 +14542,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>187</v>
       </c>
@@ -14594,7 +14589,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>188</v>
       </c>
@@ -14641,7 +14636,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>189</v>
       </c>
@@ -14688,7 +14683,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="185" t="s">
         <v>190</v>
       </c>
@@ -14735,7 +14730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="186"/>
       <c r="B20" s="16">
         <v>33</v>
@@ -14780,7 +14775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="187" t="s">
         <v>191</v>
       </c>
@@ -14827,7 +14822,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="188"/>
       <c r="B22" s="19">
         <v>2350</v>
@@ -14872,7 +14867,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="185" t="s">
         <v>192</v>
       </c>
@@ -14919,7 +14914,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="186"/>
       <c r="B24" s="22">
         <v>3400</v>
@@ -14964,7 +14959,7 @@
         <v>8550</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>193</v>
       </c>
@@ -15011,7 +15006,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>211</v>
       </c>
@@ -15030,7 +15025,7 @@
       <c r="N27" s="26"/>
       <c r="O27" s="26"/>
     </row>
-    <row r="28" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>180</v>
       </c>
@@ -15061,7 +15056,7 @@
       </c>
       <c r="M28" s="46"/>
     </row>
-    <row r="29" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="47"/>
       <c r="B29" s="48" t="s">
         <v>208</v>
@@ -15100,7 +15095,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>198</v>
       </c>
@@ -15141,7 +15136,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>209</v>
       </c>
@@ -15182,7 +15177,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>210</v>
       </c>
@@ -15223,7 +15218,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="51" t="s">
         <v>202</v>
       </c>
@@ -15264,7 +15259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="54"/>
       <c r="B34" s="55">
         <v>25</v>
@@ -15303,7 +15298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>191</v>
       </c>
@@ -15344,7 +15339,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>192</v>
       </c>
@@ -15385,7 +15380,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>193</v>
       </c>
@@ -15426,7 +15421,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
         <v>205</v>
       </c>
@@ -15445,7 +15440,7 @@
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="175" t="s">
         <v>180</v>
       </c>
@@ -15478,7 +15473,7 @@
       </c>
       <c r="O40" s="171"/>
     </row>
-    <row r="41" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="176"/>
       <c r="B41" s="11" t="s">
         <v>181</v>
@@ -15523,7 +15518,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>198</v>
       </c>
@@ -15570,7 +15565,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>199</v>
       </c>
@@ -15617,7 +15612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>200</v>
       </c>
@@ -15664,7 +15659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="177" t="s">
         <v>202</v>
       </c>
@@ -15711,7 +15706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="178"/>
       <c r="B46" s="18">
         <v>22</v>
@@ -15756,7 +15751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>203</v>
       </c>
@@ -15803,7 +15798,7 @@
         <v>4550</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>204</v>
       </c>
@@ -15850,7 +15845,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="179" t="s">
         <v>193</v>
       </c>
@@ -15897,7 +15892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="180"/>
       <c r="B50" s="15">
         <v>125</v>
@@ -15942,7 +15937,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="27" t="s">
         <v>220</v>
       </c>
@@ -15961,7 +15956,7 @@
       <c r="N52" s="26"/>
       <c r="O52" s="26"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="42"/>
       <c r="B53" s="30">
         <v>2009</v>
@@ -15992,7 +15987,7 @@
       </c>
       <c r="O53" s="171"/>
     </row>
-    <row r="54" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="47"/>
       <c r="B54" s="11" t="s">
         <v>0</v>
@@ -16037,7 +16032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>7</v>
       </c>
@@ -16084,7 +16079,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>8</v>
       </c>
@@ -16131,7 +16126,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="64" t="s">
         <v>5</v>
       </c>
@@ -16178,7 +16173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="68"/>
       <c r="B58" s="69">
         <v>20</v>
@@ -16223,7 +16218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="51" t="s">
         <v>6</v>
       </c>
@@ -16270,7 +16265,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="54"/>
       <c r="B60" s="75">
         <v>550</v>
@@ -16315,7 +16310,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="64" t="s">
         <v>9</v>
       </c>
@@ -16362,7 +16357,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="68"/>
       <c r="B62" s="81">
         <v>1050</v>
@@ -16407,7 +16402,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>10</v>
       </c>
@@ -16454,7 +16449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
         <v>218</v>
       </c>
@@ -16472,7 +16467,7 @@
       <c r="M66" s="26"/>
       <c r="N66" s="26"/>
     </row>
-    <row r="67" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="42" t="s">
         <v>180</v>
       </c>
@@ -16504,7 +16499,7 @@
       </c>
       <c r="N67" s="46"/>
     </row>
-    <row r="68" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="47"/>
       <c r="B68" s="48" t="s">
         <v>208</v>
@@ -16547,7 +16542,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>216</v>
       </c>
@@ -16591,7 +16586,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>217</v>
       </c>
@@ -16635,7 +16630,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="64" t="s">
         <v>202</v>
       </c>
@@ -16679,7 +16674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="68"/>
       <c r="B72" s="69">
         <v>20</v>
@@ -16721,7 +16716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="51" t="s">
         <v>191</v>
       </c>
@@ -16765,7 +16760,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="54"/>
       <c r="B74" s="75">
         <v>1450</v>
@@ -16807,7 +16802,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="64" t="s">
         <v>192</v>
       </c>
@@ -16851,7 +16846,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="68"/>
       <c r="B76" s="81">
         <v>2100</v>
@@ -16893,7 +16888,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>193</v>
       </c>
@@ -16937,7 +16932,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="27" t="s">
         <v>222</v>
       </c>
@@ -16955,7 +16950,7 @@
       <c r="M79" s="26"/>
       <c r="N79" s="26"/>
     </row>
-    <row r="80" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="42" t="s">
         <v>180</v>
       </c>
@@ -16987,7 +16982,7 @@
       </c>
       <c r="N80" s="46"/>
     </row>
-    <row r="81" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="47"/>
       <c r="B81" s="48" t="s">
         <v>208</v>
@@ -17029,7 +17024,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>216</v>
       </c>
@@ -17073,7 +17068,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>217</v>
       </c>
@@ -17117,7 +17112,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="64" t="s">
         <v>202</v>
       </c>
@@ -17161,7 +17156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="68"/>
       <c r="B85" s="69">
         <v>20</v>
@@ -17203,7 +17198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="89" t="s">
         <v>191</v>
       </c>
@@ -17247,7 +17242,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="54"/>
       <c r="B87" s="75">
         <v>1900</v>
@@ -17289,7 +17284,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="90" t="s">
         <v>192</v>
       </c>
@@ -17333,7 +17328,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="68"/>
       <c r="B89" s="81">
         <v>2450</v>
@@ -17375,7 +17370,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>193</v>
       </c>
@@ -17419,7 +17414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="27" t="s">
         <v>251</v>
       </c>
@@ -17436,7 +17431,7 @@
       <c r="L93" s="26"/>
       <c r="M93" s="26"/>
     </row>
-    <row r="94" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
         <v>180</v>
       </c>
@@ -17465,7 +17460,7 @@
       </c>
       <c r="M94" s="46"/>
     </row>
-    <row r="95" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="47"/>
       <c r="B95" s="48" t="s">
         <v>208</v>
@@ -17504,7 +17499,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>187</v>
       </c>
@@ -17545,7 +17540,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>242</v>
       </c>
@@ -17586,7 +17581,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>202</v>
       </c>
@@ -17627,7 +17622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>191</v>
       </c>
@@ -17668,7 +17663,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>192</v>
       </c>
@@ -17709,7 +17704,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>243</v>
       </c>
@@ -17750,7 +17745,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="27" t="s">
         <v>252</v>
       </c>
@@ -17763,7 +17758,7 @@
       <c r="H104" s="26"/>
       <c r="I104" s="26"/>
     </row>
-    <row r="105" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="175" t="s">
         <v>180</v>
       </c>
@@ -17788,7 +17783,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="176"/>
       <c r="B106" s="11" t="s">
         <v>181</v>
@@ -17815,7 +17810,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>187</v>
       </c>
@@ -17844,7 +17839,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>242</v>
       </c>
@@ -17873,7 +17868,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>202</v>
       </c>
@@ -17902,7 +17897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>191</v>
       </c>
@@ -17931,7 +17926,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>192</v>
       </c>
@@ -17960,7 +17955,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>243</v>
       </c>
@@ -17989,7 +17984,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="103" t="s">
         <v>244</v>
       </c>
@@ -18002,7 +17997,7 @@
       <c r="H113" s="87"/>
       <c r="I113" s="87"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="103"/>
       <c r="B114" s="87"/>
       <c r="C114" s="87"/>
@@ -18013,7 +18008,7 @@
       <c r="H114" s="87"/>
       <c r="I114" s="87"/>
     </row>
-    <row r="115" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="27" t="s">
         <v>253</v>
       </c>
@@ -18031,7 +18026,7 @@
       <c r="M115" s="26"/>
       <c r="N115" s="26"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="175" t="s">
         <v>180</v>
       </c>
@@ -18061,7 +18056,7 @@
       </c>
       <c r="N116" s="171"/>
     </row>
-    <row r="117" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="176"/>
       <c r="B117" s="104" t="s">
         <v>181</v>
@@ -18103,7 +18098,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>198</v>
       </c>
@@ -18147,7 +18142,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>248</v>
       </c>
@@ -18191,7 +18186,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>249</v>
       </c>
@@ -18235,7 +18230,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>250</v>
       </c>
@@ -18279,7 +18274,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
         <v>202</v>
       </c>
@@ -18323,7 +18318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>191</v>
       </c>
@@ -18367,7 +18362,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>192</v>
       </c>
@@ -18411,7 +18406,7 @@
         <v>16050</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="89" t="s">
         <v>193</v>
       </c>
@@ -18455,7 +18450,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="27" t="s">
         <v>271</v>
       </c>
@@ -18473,7 +18468,7 @@
       <c r="M127" s="26"/>
       <c r="N127" s="26"/>
     </row>
-    <row r="128" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="42" t="s">
         <v>180</v>
       </c>
@@ -18503,7 +18498,7 @@
       </c>
       <c r="N128" s="46"/>
     </row>
-    <row r="129" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="109"/>
       <c r="B129" s="110" t="s">
         <v>208</v>
@@ -18545,7 +18540,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>267</v>
       </c>
@@ -18589,7 +18584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>187</v>
       </c>
@@ -18633,7 +18628,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>268</v>
       </c>
@@ -18677,7 +18672,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>202</v>
       </c>
@@ -18721,7 +18716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="64" t="s">
         <v>269</v>
       </c>
@@ -18765,7 +18760,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="68"/>
       <c r="B135" s="82">
         <v>4200</v>
@@ -18807,7 +18802,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="51" t="s">
         <v>270</v>
       </c>
@@ -18851,7 +18846,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="54"/>
       <c r="B137" s="76">
         <v>6050</v>
@@ -18893,7 +18888,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>193</v>
       </c>
@@ -18937,7 +18932,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="27" t="s">
         <v>272</v>
       </c>
@@ -18954,7 +18949,7 @@
       <c r="L140" s="26"/>
       <c r="M140" s="26"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="175" t="s">
         <v>180</v>
       </c>
@@ -18983,7 +18978,7 @@
       </c>
       <c r="M141" s="171"/>
     </row>
-    <row r="142" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="176"/>
       <c r="B142" s="104" t="s">
         <v>181</v>
@@ -19022,7 +19017,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>267</v>
       </c>
@@ -19063,7 +19058,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
         <v>187</v>
       </c>
@@ -19104,7 +19099,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
         <v>268</v>
       </c>
@@ -19145,7 +19140,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
         <v>202</v>
       </c>
@@ -19186,7 +19181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
         <v>191</v>
       </c>
@@ -19227,7 +19222,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
         <v>192</v>
       </c>
@@ -19268,7 +19263,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="90" t="s">
         <v>193</v>
       </c>
@@ -19372,15 +19367,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="126" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C1" s="127">
         <v>2020</v>
@@ -19476,25 +19471,25 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="128" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="128" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E3" s="129"/>
       <c r="F3" s="129"/>
       <c r="G3" s="129"/>
       <c r="H3" s="129"/>
     </row>
-    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="128" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="128" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E4" s="129"/>
       <c r="F4" s="129"/>
@@ -19503,31 +19498,31 @@
       </c>
       <c r="H4" s="129"/>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="128" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="128" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E5" s="129"/>
       <c r="F5" s="129"/>
       <c r="G5" s="129"/>
       <c r="H5" s="129"/>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="128" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="129"/>
       <c r="E6" s="128" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F6" s="129"/>
       <c r="G6" s="129"/>
       <c r="H6" s="129"/>
     </row>
-    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="129"/>
       <c r="D7" s="129"/>
       <c r="E7" s="129"/>
@@ -19535,7 +19530,7 @@
       <c r="G7" s="129"/>
       <c r="H7" s="129"/>
     </row>
-    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -19543,18 +19538,18 @@
         <v>21</v>
       </c>
       <c r="AH10" s="131" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="126" t="s">
         <v>22</v>
       </c>
       <c r="AH11" s="131" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="126"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -19588,10 +19583,10 @@
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="131" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="127" t="s">
         <v>23</v>
       </c>
@@ -19689,21 +19684,21 @@
         <v>2050</v>
       </c>
       <c r="AH13" s="132" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="133" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="133" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -19807,7 +19802,7 @@
         <v>7.6740000000000003E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
@@ -19911,7 +19906,7 @@
         <v>6.1209999999999997E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -20015,7 +20010,7 @@
         <v>-1.5839999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -20119,7 +20114,7 @@
         <v>6.8310000000000003E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
@@ -20223,22 +20218,22 @@
         <v>3.039E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="133" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="133" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="134" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C26" s="140">
         <v>92.738051999999996</v>
@@ -20337,12 +20332,12 @@
         <v>-3.63E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="134" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C27" s="140">
         <v>92.104782</v>
@@ -20441,17 +20436,17 @@
         <v>-4.5240000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="133" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="134" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C29" s="140">
         <v>51.828938000000001</v>
@@ -20550,12 +20545,12 @@
         <v>-6.6480000000000003E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="134" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C30" s="140">
         <v>51.475014000000002</v>
@@ -20654,17 +20649,17 @@
         <v>-7.5399999999999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B32" s="133" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B33" s="133" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>43</v>
       </c>
@@ -20768,7 +20763,7 @@
         <v>-2.0639999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>45</v>
       </c>
@@ -20872,7 +20867,7 @@
         <v>1.9564000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>47</v>
       </c>
@@ -20976,7 +20971,7 @@
         <v>3.643E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>49</v>
       </c>
@@ -21080,7 +21075,7 @@
         <v>3.2520000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>51</v>
       </c>
@@ -21184,7 +21179,7 @@
         <v>3.3189999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>53</v>
       </c>
@@ -21288,7 +21283,7 @@
         <v>1.3436999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>55</v>
       </c>
@@ -21392,7 +21387,7 @@
         <v>-3.2299999999999999E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>57</v>
       </c>
@@ -21496,12 +21491,12 @@
         <v>-3.4940000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B42" s="134" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C42" s="135">
         <v>3.6778999999999999E-2</v>
@@ -21600,12 +21595,12 @@
         <v>7.607E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B43" s="134" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C43" s="135">
         <v>2.6616999999999998E-2</v>
@@ -21704,12 +21699,12 @@
         <v>1.5869999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B44" s="134" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C44" s="135">
         <v>0.20913000000000001</v>
@@ -21808,12 +21803,12 @@
         <v>1.026E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B45" s="134" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C45" s="135">
         <v>8.6663000000000004E-2</v>
@@ -21912,7 +21907,7 @@
         <v>-2.4854999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>63</v>
       </c>
@@ -22016,7 +22011,7 @@
         <v>-2.1619999999999999E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>65</v>
       </c>
@@ -22120,12 +22115,12 @@
         <v>1.1168000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B48" s="133" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C48" s="137">
         <v>5.1309459999999998</v>
@@ -22224,12 +22219,12 @@
         <v>8.7930000000000005E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B49" s="134" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C49" s="135">
         <v>7.8133999999999995E-2</v>
@@ -22328,12 +22323,12 @@
         <v>5.7514999999999997E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B50" s="133" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C50" s="137">
         <v>5.0528120000000003</v>
@@ -22432,13 +22427,13 @@
         <v>7.1339999999999997E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="133" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:34" s="148" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" s="148" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="144" t="s">
         <v>69</v>
       </c>
@@ -22542,7 +22537,7 @@
         <v>-2.983E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>70</v>
       </c>
@@ -22646,7 +22641,7 @@
         <v>8.52E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:34" s="166" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" s="166" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="162" t="s">
         <v>71</v>
       </c>
@@ -22750,7 +22745,7 @@
         <v>5.5589999999999997E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>72</v>
       </c>
@@ -22854,7 +22849,7 @@
         <v>5.2570000000000004E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>73</v>
       </c>
@@ -22958,12 +22953,12 @@
         <v>1.376E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B58" s="134" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C58" s="135">
         <v>0.233372</v>
@@ -23062,7 +23057,7 @@
         <v>-1.81E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>76</v>
       </c>
@@ -23166,13 +23161,13 @@
         <v>-6.3199999999999997E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="133" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34" s="150" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" s="150" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="152" t="s">
         <v>77</v>
       </c>
@@ -23276,7 +23271,7 @@
         <v>-1.3488E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>78</v>
       </c>
@@ -23380,7 +23375,7 @@
         <v>-2.0957E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>79</v>
       </c>
@@ -23484,7 +23479,7 @@
         <v>-3.3800000000000002E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>80</v>
       </c>
@@ -23588,13 +23583,13 @@
         <v>-1.4037000000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="133" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>82</v>
       </c>
@@ -23698,7 +23693,7 @@
         <v>-6.0350000000000004E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>83</v>
       </c>
@@ -23802,7 +23797,7 @@
         <v>-1.6150000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>84</v>
       </c>
@@ -23906,12 +23901,12 @@
         <v>-8.4010000000000005E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B71" s="134" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C71" s="135">
         <v>7.1942000000000006E-2</v>
@@ -24010,7 +24005,7 @@
         <v>1.9682000000000002E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>87</v>
       </c>
@@ -24114,12 +24109,12 @@
         <v>-1.64E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" s="160" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:34" s="160" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="156" t="s">
         <v>88</v>
       </c>
       <c r="B74" s="157" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C74" s="158">
         <v>0.457513</v>
@@ -24218,13 +24213,13 @@
         <v>-1.1620999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="133" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>89</v>
       </c>
@@ -24328,7 +24323,7 @@
         <v>-4.3550000000000004E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>91</v>
       </c>
@@ -24432,7 +24427,7 @@
         <v>1.8567E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>93</v>
       </c>
@@ -24536,7 +24531,7 @@
         <v>3.7260000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>95</v>
       </c>
@@ -24640,7 +24635,7 @@
         <v>3.2520000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>97</v>
       </c>
@@ -24744,7 +24739,7 @@
         <v>3.5279999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>99</v>
       </c>
@@ -24848,7 +24843,7 @@
         <v>1.3487000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>101</v>
       </c>
@@ -24952,7 +24947,7 @@
         <v>-3.2299999999999999E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>103</v>
       </c>
@@ -25056,12 +25051,12 @@
         <v>-3.4940000000000001E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B85" s="134" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C85" s="135">
         <v>3.6778999999999999E-2</v>
@@ -25160,12 +25155,12 @@
         <v>7.607E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B86" s="134" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C86" s="135">
         <v>2.6616999999999998E-2</v>
@@ -25264,12 +25259,12 @@
         <v>1.5869999999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B87" s="134" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C87" s="135">
         <v>0.20913000000000001</v>
@@ -25368,12 +25363,12 @@
         <v>1.026E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B88" s="134" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C88" s="135">
         <v>8.6663000000000004E-2</v>
@@ -25472,7 +25467,7 @@
         <v>-2.4854999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>109</v>
       </c>
@@ -25576,12 +25571,12 @@
         <v>-2.1619999999999999E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B90" s="134" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C90" s="135">
         <v>2.095396</v>
@@ -25680,12 +25675,12 @@
         <v>1.0236E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B91" s="133" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C91" s="137">
         <v>11.442263000000001</v>
@@ -25784,12 +25779,12 @@
         <v>3.1770000000000001E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B92" s="134" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C92" s="135">
         <v>7.8133999999999995E-2</v>
@@ -25888,12 +25883,12 @@
         <v>5.7514999999999997E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B93" s="133" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C93" s="137">
         <v>11.364127999999999</v>
@@ -25992,8 +25987,8 @@
         <v>2.2759999999999998E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>113</v>
       </c>
@@ -26097,13 +26092,13 @@
         <v>-2.8930000000000002E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="133" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="98" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>115</v>
       </c>
@@ -26207,7 +26202,7 @@
         <v>-5.6519999999999999E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>116</v>
       </c>
@@ -26311,7 +26306,7 @@
         <v>1.304E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>117</v>
       </c>
@@ -26415,7 +26410,7 @@
         <v>8.2000000000000001E-5</v>
       </c>
     </row>
-    <row r="101" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>118</v>
       </c>
@@ -26519,7 +26514,7 @@
         <v>-2.911E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>119</v>
       </c>
@@ -26623,7 +26618,7 @@
         <v>1.08E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>120</v>
       </c>
@@ -26727,7 +26722,7 @@
         <v>7.639E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>121</v>
       </c>
@@ -26831,7 +26826,7 @@
         <v>-6.4640000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>122</v>
       </c>
@@ -26935,12 +26930,12 @@
         <v>-9.6159999999999995E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B106" s="134" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C106" s="135">
         <v>0.105377</v>
@@ -27039,12 +27034,12 @@
         <v>1.4170000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B107" s="134" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C107" s="135">
         <v>7.6258999999999993E-2</v>
@@ -27143,12 +27138,12 @@
         <v>9.6290000000000004E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B108" s="134" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C108" s="135">
         <v>0.59918000000000005</v>
@@ -27247,12 +27242,12 @@
         <v>4.0530000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B109" s="134" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C109" s="135">
         <v>0.24829899999999999</v>
@@ -27351,7 +27346,7 @@
         <v>-3.0845999999999998E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>127</v>
       </c>
@@ -27455,12 +27450,12 @@
         <v>-8.2920000000000008E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B111" s="134" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C111" s="135">
         <v>5.4194519999999997</v>
@@ -27559,12 +27554,12 @@
         <v>4.9240000000000004E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B112" s="198" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C112" s="199">
         <v>21.012035000000001</v>
@@ -27663,12 +27658,12 @@
         <v>1.2310000000000001E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B113" s="134" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C113" s="135">
         <v>7.8133999999999995E-2</v>
@@ -27767,12 +27762,12 @@
         <v>5.7514999999999997E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B114" s="133" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C114" s="137">
         <v>20.933900999999999</v>
@@ -27871,13 +27866,13 @@
         <v>7.0899999999999999E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="133" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="117" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="117" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>130</v>
       </c>
@@ -27981,7 +27976,7 @@
         <v>4.5310000000000003E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>132</v>
       </c>
@@ -28085,7 +28080,7 @@
         <v>3.7659999999999998E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>134</v>
       </c>
@@ -28189,7 +28184,7 @@
         <v>5.6439999999999997E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>136</v>
       </c>
@@ -28293,7 +28288,7 @@
         <v>1.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="121" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>138</v>
       </c>
@@ -28397,13 +28392,13 @@
         <v>5.1526000000000002E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="133" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>141</v>
       </c>
@@ -28507,7 +28502,7 @@
         <v>-5.0199999999999995E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>143</v>
       </c>
@@ -28611,7 +28606,7 @@
         <v>-5.3799999999999996E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>145</v>
       </c>
@@ -28715,7 +28710,7 @@
         <v>3.0400000000000002E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>147</v>
       </c>
@@ -28819,7 +28814,7 @@
         <v>5.1999999999999997E-5</v>
       </c>
     </row>
-    <row r="128" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>149</v>
       </c>
@@ -28923,7 +28918,7 @@
         <v>-4.8899999999999996E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>151</v>
       </c>
@@ -29027,7 +29022,7 @@
         <v>7.6099999999999996E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>153</v>
       </c>
@@ -29131,7 +29126,7 @@
         <v>7.9299999999999998E-4</v>
       </c>
     </row>
-    <row r="131" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>155</v>
       </c>
@@ -29235,7 +29230,7 @@
         <v>-2.7920000000000002E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>157</v>
       </c>
@@ -29339,7 +29334,7 @@
         <v>-4.0810000000000004E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>159</v>
       </c>
@@ -29443,13 +29438,13 @@
         <v>-2.114E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="133" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>162</v>
       </c>
@@ -29553,7 +29548,7 @@
         <v>4.5440000000000003E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>163</v>
       </c>
@@ -29657,7 +29652,7 @@
         <v>7.5940000000000001E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>164</v>
       </c>
@@ -29761,7 +29756,7 @@
         <v>7.28E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>165</v>
       </c>
@@ -29865,7 +29860,7 @@
         <v>6.8050000000000003E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>166</v>
       </c>
@@ -29969,7 +29964,7 @@
         <v>6.5139999999999998E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>167</v>
       </c>
@@ -30073,7 +30068,7 @@
         <v>8.4969999999999993E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>168</v>
       </c>
@@ -30177,7 +30172,7 @@
         <v>5.9420000000000002E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>169</v>
       </c>
@@ -30281,7 +30276,7 @@
         <v>3.4979999999999998E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>170</v>
       </c>
@@ -30385,7 +30380,7 @@
         <v>4.0660000000000002E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>171</v>
       </c>
@@ -30489,10 +30484,10 @@
         <v>7.528E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B147" s="201" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C147" s="202"/>
       <c r="D147" s="202"/>
@@ -30527,108 +30522,108 @@
       <c r="AG147" s="202"/>
       <c r="AH147" s="142"/>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B148" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B149" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="150" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="6" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B149" s="6" t="s">
+    <row r="151" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="6" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="150" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="6" t="s">
+    <row r="152" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="6" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="151" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="152" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="153" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="154" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="155" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="156" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="6" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="155" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="6" t="s">
+    <row r="157" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="6" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="156" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="6" t="s">
+    <row r="158" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="6" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="157" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="158" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="159" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="160" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="6" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="163" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="6" t="s">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="6" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="164" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="6" t="s">
+    <row r="166" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="6" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B165" s="6" t="s">
+    <row r="167" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="6" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="166" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="307" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="197"/>
       <c r="C308" s="197"/>
       <c r="D308" s="197"/>
@@ -30663,10 +30658,10 @@
       <c r="AG308" s="197"/>
       <c r="AH308" s="197"/>
     </row>
-    <row r="378" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B511" s="197"/>
       <c r="C511" s="197"/>
       <c r="D511" s="197"/>
@@ -30701,10 +30696,10 @@
       <c r="AG511" s="197"/>
       <c r="AH511" s="197"/>
     </row>
-    <row r="578" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B712" s="197"/>
       <c r="C712" s="197"/>
       <c r="D712" s="197"/>
@@ -30739,10 +30734,10 @@
       <c r="AG712" s="197"/>
       <c r="AH712" s="197"/>
     </row>
-    <row r="778" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B887" s="197"/>
       <c r="C887" s="197"/>
       <c r="D887" s="197"/>
@@ -30777,10 +30772,10 @@
       <c r="AG887" s="197"/>
       <c r="AH887" s="197"/>
     </row>
-    <row r="953" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1099" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1099" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1100" s="197"/>
       <c r="C1100" s="197"/>
       <c r="D1100" s="197"/>
@@ -30815,10 +30810,10 @@
       <c r="AG1100" s="197"/>
       <c r="AH1100" s="197"/>
     </row>
-    <row r="1153" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1154" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1226" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1154" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1226" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1227" s="197"/>
       <c r="C1227" s="197"/>
       <c r="D1227" s="197"/>
@@ -30853,10 +30848,10 @@
       <c r="AG1227" s="197"/>
       <c r="AH1227" s="197"/>
     </row>
-    <row r="1303" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1304" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1389" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1303" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1304" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1389" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1390" s="197"/>
       <c r="C1390" s="197"/>
       <c r="D1390" s="197"/>
@@ -30891,10 +30886,10 @@
       <c r="AG1390" s="197"/>
       <c r="AH1390" s="197"/>
     </row>
-    <row r="1428" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1429" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1501" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1428" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1429" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1501" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1502" s="197"/>
       <c r="C1502" s="197"/>
       <c r="D1502" s="197"/>
@@ -30929,10 +30924,10 @@
       <c r="AG1502" s="197"/>
       <c r="AH1502" s="197"/>
     </row>
-    <row r="1578" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1579" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1603" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1578" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1579" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1603" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1604" s="197"/>
       <c r="C1604" s="197"/>
       <c r="D1604" s="197"/>
@@ -30967,10 +30962,10 @@
       <c r="AG1604" s="197"/>
       <c r="AH1604" s="197"/>
     </row>
-    <row r="1628" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1629" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1697" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1628" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1629" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1697" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1698" s="197"/>
       <c r="C1698" s="197"/>
       <c r="D1698" s="197"/>
@@ -31005,10 +31000,10 @@
       <c r="AG1698" s="197"/>
       <c r="AH1698" s="197"/>
     </row>
-    <row r="1853" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1854" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1944" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1853" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1854" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1944" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1945" s="197"/>
       <c r="C1945" s="197"/>
       <c r="D1945" s="197"/>
@@ -31043,10 +31038,10 @@
       <c r="AG1945" s="197"/>
       <c r="AH1945" s="197"/>
     </row>
-    <row r="1978" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1979" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2030" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1978" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1979" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2030" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2031" s="197"/>
       <c r="C2031" s="197"/>
       <c r="D2031" s="197"/>
@@ -31081,10 +31076,10 @@
       <c r="AG2031" s="197"/>
       <c r="AH2031" s="197"/>
     </row>
-    <row r="2103" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2104" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2152" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2103" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2104" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2152" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2153" s="197"/>
       <c r="C2153" s="197"/>
       <c r="D2153" s="197"/>
@@ -31119,10 +31114,10 @@
       <c r="AG2153" s="197"/>
       <c r="AH2153" s="197"/>
     </row>
-    <row r="2253" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2254" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2316" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2253" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2254" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2316" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2317" s="197"/>
       <c r="C2317" s="197"/>
       <c r="D2317" s="197"/>
@@ -31157,10 +31152,10 @@
       <c r="AG2317" s="197"/>
       <c r="AH2317" s="197"/>
     </row>
-    <row r="2353" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2354" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2418" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2353" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2354" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2418" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2419" s="197"/>
       <c r="C2419" s="197"/>
       <c r="D2419" s="197"/>
@@ -31195,10 +31190,10 @@
       <c r="AG2419" s="197"/>
       <c r="AH2419" s="197"/>
     </row>
-    <row r="2453" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2454" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2508" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2453" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2454" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2508" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2509" s="197"/>
       <c r="C2509" s="197"/>
       <c r="D2509" s="197"/>
@@ -31233,10 +31228,10 @@
       <c r="AG2509" s="197"/>
       <c r="AH2509" s="197"/>
     </row>
-    <row r="2553" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2554" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2597" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2553" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2554" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2597" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2598" s="197"/>
       <c r="C2598" s="197"/>
       <c r="D2598" s="197"/>
@@ -31271,10 +31266,10 @@
       <c r="AG2598" s="197"/>
       <c r="AH2598" s="197"/>
     </row>
-    <row r="2628" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2629" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2718" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2628" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2629" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2718" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2719" s="197"/>
       <c r="C2719" s="197"/>
       <c r="D2719" s="197"/>
@@ -31309,10 +31304,10 @@
       <c r="AG2719" s="197"/>
       <c r="AH2719" s="197"/>
     </row>
-    <row r="2778" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2779" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2836" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2778" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2779" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2836" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2837" s="197"/>
       <c r="C2837" s="197"/>
       <c r="D2837" s="197"/>
@@ -31383,42 +31378,42 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5" customWidth="1"/>
-    <col min="2" max="2" width="75.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>397</v>
-      </c>
-      <c r="C5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D5" t="s">
-        <v>399</v>
       </c>
       <c r="E5">
         <v>2019</v>
@@ -31517,37 +31512,37 @@
         <v>2050</v>
       </c>
       <c r="AK5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>175</v>
       </c>
       <c r="C6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C7" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>402</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>404</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>405</v>
-      </c>
-      <c r="C8" t="s">
-        <v>406</v>
-      </c>
-      <c r="D8" t="s">
-        <v>407</v>
       </c>
       <c r="F8">
         <v>12.588214000000001</v>
@@ -31646,18 +31641,18 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C9" t="s">
         <v>408</v>
       </c>
-      <c r="B9" t="s">
-        <v>409</v>
-      </c>
-      <c r="C9" t="s">
-        <v>410</v>
-      </c>
       <c r="D9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F9">
         <v>30.217645999999998</v>
@@ -31756,18 +31751,18 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="148" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="148" t="s">
+        <v>409</v>
+      </c>
+      <c r="B10" s="148" t="s">
+        <v>410</v>
+      </c>
+      <c r="C10" s="148" t="s">
         <v>411</v>
       </c>
-      <c r="B10" s="148" t="s">
-        <v>412</v>
-      </c>
-      <c r="C10" s="148" t="s">
-        <v>413</v>
-      </c>
       <c r="D10" s="148" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F10" s="148">
         <v>1.3117239999999999</v>
@@ -31866,18 +31861,18 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="148" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="148" t="s">
+        <v>412</v>
+      </c>
+      <c r="B11" s="148" t="s">
+        <v>413</v>
+      </c>
+      <c r="C11" s="148" t="s">
         <v>414</v>
       </c>
-      <c r="B11" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="C11" s="148" t="s">
-        <v>416</v>
-      </c>
       <c r="D11" s="148" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F11" s="148">
         <v>60.555110999999997</v>
@@ -31976,18 +31971,18 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="150" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" s="150" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="150" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12" s="150" t="s">
+        <v>416</v>
+      </c>
+      <c r="C12" s="150" t="s">
         <v>417</v>
       </c>
-      <c r="B12" s="150" t="s">
-        <v>418</v>
-      </c>
-      <c r="C12" s="150" t="s">
-        <v>419</v>
-      </c>
       <c r="D12" s="150" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F12" s="150">
         <v>5.548133</v>
@@ -32086,18 +32081,18 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13" t="s">
+        <v>419</v>
+      </c>
+      <c r="C13" t="s">
         <v>420</v>
       </c>
-      <c r="B13" t="s">
-        <v>421</v>
-      </c>
-      <c r="C13" t="s">
-        <v>422</v>
-      </c>
       <c r="D13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F13">
         <v>5.1948600000000003</v>
@@ -32196,18 +32191,18 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B14" t="s">
+        <v>422</v>
+      </c>
+      <c r="C14" t="s">
         <v>423</v>
       </c>
-      <c r="B14" t="s">
-        <v>424</v>
-      </c>
-      <c r="C14" t="s">
-        <v>425</v>
-      </c>
       <c r="D14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F14">
         <v>2.8969999999999998E-3</v>
@@ -32306,18 +32301,18 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="160" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" s="160" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="160" t="s">
+        <v>424</v>
+      </c>
+      <c r="B15" s="160" t="s">
+        <v>425</v>
+      </c>
+      <c r="C15" s="160" t="s">
         <v>426</v>
       </c>
-      <c r="B15" s="160" t="s">
-        <v>427</v>
-      </c>
-      <c r="C15" s="160" t="s">
-        <v>428</v>
-      </c>
       <c r="D15" s="160" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F15" s="160">
         <v>3.344913</v>
@@ -32416,18 +32411,18 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>427</v>
+      </c>
+      <c r="B16" t="s">
+        <v>428</v>
+      </c>
+      <c r="C16" t="s">
         <v>429</v>
       </c>
-      <c r="B16" t="s">
-        <v>430</v>
-      </c>
-      <c r="C16" t="s">
-        <v>431</v>
-      </c>
       <c r="D16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F16">
         <v>0.65997300000000003</v>
@@ -32526,18 +32521,18 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>430</v>
+      </c>
+      <c r="B17" t="s">
+        <v>431</v>
+      </c>
+      <c r="C17" t="s">
         <v>432</v>
       </c>
-      <c r="B17" t="s">
-        <v>433</v>
-      </c>
-      <c r="C17" t="s">
-        <v>434</v>
-      </c>
       <c r="D17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F17">
         <v>119.42347700000001</v>
@@ -32636,26 +32631,26 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>433</v>
+      </c>
+      <c r="C18" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" t="s">
         <v>435</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>404</v>
-      </c>
-      <c r="B19" t="s">
-        <v>437</v>
-      </c>
-      <c r="C19" t="s">
-        <v>438</v>
-      </c>
       <c r="D19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F19">
         <v>12.58821</v>
@@ -32754,18 +32749,18 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F20">
         <v>1.3117239999999999</v>
@@ -32864,18 +32859,18 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F21">
         <v>0.65997300000000003</v>
@@ -32974,18 +32969,18 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>441</v>
+      </c>
+      <c r="B22" t="s">
+        <v>442</v>
+      </c>
+      <c r="C22" t="s">
         <v>443</v>
       </c>
-      <c r="B22" t="s">
-        <v>444</v>
-      </c>
-      <c r="C22" t="s">
-        <v>445</v>
-      </c>
       <c r="D22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F22">
         <v>62.428100999999998</v>
@@ -33084,18 +33079,18 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>444</v>
+      </c>
+      <c r="B23" t="s">
+        <v>445</v>
+      </c>
+      <c r="C23" t="s">
         <v>446</v>
       </c>
-      <c r="B23" t="s">
-        <v>447</v>
-      </c>
-      <c r="C23" t="s">
-        <v>448</v>
-      </c>
       <c r="D23" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F23">
         <v>57.979027000000002</v>
@@ -33194,18 +33189,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B24" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C24" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D24" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F24">
         <v>134.96704099999999</v>
@@ -33304,26 +33299,26 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>449</v>
+      </c>
+      <c r="C25" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>451</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="C26" t="s">
         <v>453</v>
       </c>
-      <c r="B26" t="s">
-        <v>454</v>
-      </c>
-      <c r="C26" t="s">
-        <v>455</v>
-      </c>
       <c r="D26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F26">
         <v>59.144027999999999</v>
@@ -33422,18 +33417,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="167" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" s="167" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="167" t="s">
+        <v>454</v>
+      </c>
+      <c r="B27" s="167" t="s">
+        <v>455</v>
+      </c>
+      <c r="C27" s="167" t="s">
         <v>456</v>
       </c>
-      <c r="B27" s="167" t="s">
-        <v>457</v>
-      </c>
-      <c r="C27" s="167" t="s">
-        <v>458</v>
-      </c>
       <c r="D27" s="167" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F27" s="167">
         <v>60.065722999999998</v>
@@ -33532,18 +33527,18 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F28" s="58">
         <v>2.6456879999999998</v>
@@ -33642,18 +33637,18 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B29" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C29" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D29" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F29">
         <v>4.0547959999999996</v>
@@ -33752,18 +33747,18 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>461</v>
+      </c>
+      <c r="B30" t="s">
+        <v>462</v>
+      </c>
+      <c r="C30" t="s">
         <v>463</v>
       </c>
-      <c r="B30" t="s">
-        <v>464</v>
-      </c>
-      <c r="C30" t="s">
-        <v>465</v>
-      </c>
       <c r="D30" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F30">
         <v>1.6193390000000001</v>
@@ -33862,18 +33857,18 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B31" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C31" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D31" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F31">
         <v>127.529572</v>
@@ -33972,26 +33967,26 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>466</v>
+      </c>
+      <c r="C32" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>451</v>
+      </c>
+      <c r="B33" t="s">
         <v>468</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>453</v>
-      </c>
-      <c r="B33" t="s">
-        <v>470</v>
-      </c>
-      <c r="C33" t="s">
-        <v>471</v>
-      </c>
       <c r="D33" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F33">
         <v>96.368851000000006</v>
@@ -34090,18 +34085,18 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B34" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C34" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D34" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F34">
         <v>47.877865</v>
@@ -34200,18 +34195,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B35" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C35" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D35" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F35">
         <v>7.1852200000000002</v>
@@ -34310,18 +34305,18 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B36" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C36" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D36" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F36">
         <v>151.43194600000001</v>
@@ -34420,26 +34415,26 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>476</v>
+      </c>
+      <c r="C37" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>451</v>
+      </c>
+      <c r="B38" t="s">
         <v>478</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>453</v>
-      </c>
-      <c r="B38" t="s">
-        <v>480</v>
-      </c>
-      <c r="C38" t="s">
-        <v>481</v>
-      </c>
       <c r="D38" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F38">
         <v>82.851837000000003</v>
@@ -34538,18 +34533,18 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B39" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C39" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D39" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F39">
         <v>19.328499000000001</v>
@@ -34648,18 +34643,18 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B40" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C40" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D40" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F40">
         <v>102.180336</v>
@@ -34758,26 +34753,26 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>484</v>
+      </c>
+      <c r="C41" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>486</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="C42" t="s">
         <v>488</v>
       </c>
-      <c r="B42" t="s">
-        <v>489</v>
-      </c>
-      <c r="C42" t="s">
-        <v>490</v>
-      </c>
       <c r="D42" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F42">
         <v>168.42892499999999</v>
@@ -34876,18 +34871,18 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>489</v>
+      </c>
+      <c r="B43" t="s">
+        <v>490</v>
+      </c>
+      <c r="C43" t="s">
         <v>491</v>
       </c>
-      <c r="B43" t="s">
-        <v>492</v>
-      </c>
-      <c r="C43" t="s">
-        <v>493</v>
-      </c>
       <c r="D43" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F43">
         <v>44.426056000000003</v>
@@ -34986,34 +34981,34 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>176</v>
       </c>
       <c r="C44" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>400</v>
+      </c>
+      <c r="C45" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>402</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="C46" t="s">
         <v>496</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>497</v>
-      </c>
-      <c r="C46" t="s">
-        <v>498</v>
-      </c>
-      <c r="D46" t="s">
-        <v>499</v>
       </c>
       <c r="F46">
         <v>8.1115349999999999</v>
@@ -35112,18 +35107,18 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>498</v>
+      </c>
+      <c r="B47" t="s">
+        <v>499</v>
+      </c>
+      <c r="C47" t="s">
         <v>500</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>501</v>
-      </c>
-      <c r="C47" t="s">
-        <v>502</v>
-      </c>
-      <c r="D47" t="s">
-        <v>503</v>
       </c>
       <c r="F47">
         <v>1.3</v>
@@ -35222,18 +35217,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>502</v>
+      </c>
+      <c r="B48" t="s">
+        <v>503</v>
+      </c>
+      <c r="C48" t="s">
         <v>504</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>505</v>
-      </c>
-      <c r="C48" t="s">
-        <v>506</v>
-      </c>
-      <c r="D48" t="s">
-        <v>507</v>
       </c>
       <c r="F48">
         <v>3.4048020000000001</v>
@@ -35332,18 +35327,18 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>506</v>
+      </c>
+      <c r="B49" t="s">
+        <v>507</v>
+      </c>
+      <c r="C49" t="s">
         <v>508</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>509</v>
-      </c>
-      <c r="C49" t="s">
-        <v>510</v>
-      </c>
-      <c r="D49" t="s">
-        <v>511</v>
       </c>
       <c r="F49">
         <v>0.82003599999999999</v>
@@ -35442,18 +35437,18 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>510</v>
+      </c>
+      <c r="B50" t="s">
+        <v>511</v>
+      </c>
+      <c r="C50" t="s">
         <v>512</v>
       </c>
-      <c r="B50" t="s">
-        <v>513</v>
-      </c>
-      <c r="C50" t="s">
-        <v>514</v>
-      </c>
       <c r="D50" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F50">
         <v>0.83380600000000005</v>
@@ -35552,26 +35547,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>513</v>
+      </c>
+      <c r="C51" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>515</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B52" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="C52" t="s">
         <v>517</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
         <v>518</v>
-      </c>
-      <c r="C52" t="s">
-        <v>519</v>
-      </c>
-      <c r="D52" t="s">
-        <v>520</v>
       </c>
       <c r="F52">
         <v>13.797461999999999</v>
@@ -35670,18 +35665,18 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B53" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C53" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D53" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F53">
         <v>0.60571200000000003</v>
@@ -35780,18 +35775,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>521</v>
+      </c>
+      <c r="B54" t="s">
+        <v>522</v>
+      </c>
+      <c r="C54" t="s">
         <v>523</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>524</v>
-      </c>
-      <c r="C54" t="s">
-        <v>525</v>
-      </c>
-      <c r="D54" t="s">
-        <v>526</v>
       </c>
       <c r="F54">
         <v>15.371568</v>
@@ -35890,18 +35885,18 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>525</v>
+      </c>
+      <c r="B55" t="s">
+        <v>526</v>
+      </c>
+      <c r="C55" t="s">
         <v>527</v>
       </c>
-      <c r="B55" t="s">
-        <v>528</v>
-      </c>
-      <c r="C55" t="s">
-        <v>529</v>
-      </c>
       <c r="D55" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F55">
         <v>13.228505999999999</v>
@@ -36000,18 +35995,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>528</v>
+      </c>
+      <c r="B56" t="s">
+        <v>529</v>
+      </c>
+      <c r="C56" t="s">
         <v>530</v>
       </c>
-      <c r="B56" t="s">
-        <v>531</v>
-      </c>
-      <c r="C56" t="s">
-        <v>532</v>
-      </c>
       <c r="D56" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F56">
         <v>11.152912000000001</v>
@@ -36110,26 +36105,26 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>531</v>
+      </c>
+      <c r="C57" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>533</v>
       </c>
-      <c r="C57" t="s">
+      <c r="B58" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="C58" t="s">
         <v>535</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
         <v>536</v>
-      </c>
-      <c r="C58" t="s">
-        <v>537</v>
-      </c>
-      <c r="D58" t="s">
-        <v>538</v>
       </c>
       <c r="F58">
         <v>0.90693800000000002</v>
@@ -36228,18 +36223,18 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>537</v>
+      </c>
+      <c r="B59" t="s">
+        <v>538</v>
+      </c>
+      <c r="C59" t="s">
         <v>539</v>
       </c>
-      <c r="B59" t="s">
-        <v>540</v>
-      </c>
-      <c r="C59" t="s">
-        <v>541</v>
-      </c>
       <c r="D59" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F59">
         <v>0.60857099999999997</v>
@@ -36338,18 +36333,18 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>540</v>
+      </c>
+      <c r="B60" t="s">
+        <v>541</v>
+      </c>
+      <c r="C60" t="s">
         <v>542</v>
       </c>
-      <c r="B60" t="s">
-        <v>543</v>
-      </c>
-      <c r="C60" t="s">
-        <v>544</v>
-      </c>
       <c r="D60" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F60">
         <v>0.582561</v>
@@ -36448,18 +36443,18 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>543</v>
+      </c>
+      <c r="B61" t="s">
+        <v>544</v>
+      </c>
+      <c r="C61" t="s">
         <v>545</v>
       </c>
-      <c r="B61" t="s">
-        <v>546</v>
-      </c>
-      <c r="C61" t="s">
-        <v>547</v>
-      </c>
       <c r="D61" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F61">
         <v>0.59947300000000003</v>
@@ -36558,26 +36553,26 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>546</v>
+      </c>
+      <c r="C62" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>486</v>
+      </c>
+      <c r="B63" t="s">
         <v>548</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>488</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
         <v>550</v>
-      </c>
-      <c r="C63" t="s">
-        <v>551</v>
-      </c>
-      <c r="D63" t="s">
-        <v>552</v>
       </c>
       <c r="F63">
         <v>621.62353499999995</v>
@@ -36676,18 +36671,18 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C64" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D64" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F64">
         <v>458.33587599999998</v>
@@ -36786,34 +36781,34 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>553</v>
+      </c>
+      <c r="C65" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>555</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>557</v>
       </c>
-      <c r="C66" t="s">
+      <c r="B67" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="C67" t="s">
         <v>559</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
         <v>560</v>
-      </c>
-      <c r="C67" t="s">
-        <v>561</v>
-      </c>
-      <c r="D67" t="s">
-        <v>562</v>
       </c>
       <c r="F67">
         <v>0.96857099999999996</v>
@@ -36912,18 +36907,18 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>561</v>
+      </c>
+      <c r="B68" t="s">
+        <v>562</v>
+      </c>
+      <c r="C68" t="s">
         <v>563</v>
       </c>
-      <c r="B68" t="s">
-        <v>564</v>
-      </c>
-      <c r="C68" t="s">
-        <v>565</v>
-      </c>
       <c r="D68" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F68">
         <v>0.87612599999999996</v>
@@ -37022,18 +37017,18 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>564</v>
+      </c>
+      <c r="B69" t="s">
+        <v>565</v>
+      </c>
+      <c r="C69" t="s">
         <v>566</v>
       </c>
-      <c r="B69" t="s">
-        <v>567</v>
-      </c>
-      <c r="C69" t="s">
-        <v>568</v>
-      </c>
       <c r="D69" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F69">
         <v>0.96265100000000003</v>
@@ -37132,26 +37127,26 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C70" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>557</v>
+      </c>
+      <c r="B71" t="s">
+        <v>568</v>
+      </c>
+      <c r="C71" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>559</v>
-      </c>
-      <c r="B71" t="s">
-        <v>570</v>
-      </c>
-      <c r="C71" t="s">
-        <v>571</v>
-      </c>
       <c r="D71" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F71">
         <v>0.98902999999999996</v>
@@ -37250,18 +37245,18 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B72" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C72" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D72" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F72">
         <v>0.99050899999999997</v>
@@ -37360,18 +37355,18 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B73" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C73" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D73" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F73">
         <v>0.98917699999999997</v>
@@ -37470,42 +37465,42 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>574</v>
+      </c>
+      <c r="C74" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>576</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>578</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>580</v>
       </c>
-      <c r="C76" t="s">
+      <c r="B77" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="C77" t="s">
         <v>582</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
         <v>583</v>
-      </c>
-      <c r="C77" t="s">
-        <v>584</v>
-      </c>
-      <c r="D77" t="s">
-        <v>585</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -37604,18 +37599,18 @@
         <v>177</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>584</v>
+      </c>
+      <c r="B78" t="s">
+        <v>585</v>
+      </c>
+      <c r="C78" t="s">
         <v>586</v>
       </c>
-      <c r="B78" t="s">
-        <v>587</v>
-      </c>
-      <c r="C78" t="s">
-        <v>588</v>
-      </c>
       <c r="D78" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F78">
         <v>18.318204999999999</v>
@@ -37714,18 +37709,18 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>587</v>
+      </c>
+      <c r="B79" t="s">
+        <v>588</v>
+      </c>
+      <c r="C79" t="s">
         <v>589</v>
       </c>
-      <c r="B79" t="s">
-        <v>590</v>
-      </c>
-      <c r="C79" t="s">
-        <v>591</v>
-      </c>
       <c r="D79" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F79">
         <v>1.4232E-2</v>
@@ -37824,18 +37819,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B80" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C80" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D80" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F80">
         <v>18.332438</v>
@@ -37934,26 +37929,26 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>592</v>
+      </c>
+      <c r="C81" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>580</v>
+      </c>
+      <c r="B82" t="s">
         <v>594</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>582</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="D82" t="s">
         <v>596</v>
-      </c>
-      <c r="C82" t="s">
-        <v>597</v>
-      </c>
-      <c r="D82" t="s">
-        <v>598</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -38052,18 +38047,18 @@
         <v>177</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B83" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C83" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D83" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F83">
         <v>27.109546999999999</v>
@@ -38162,18 +38157,18 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B84" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C84" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D84" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F84">
         <v>1.8546E-2</v>
@@ -38272,18 +38267,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B85" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C85" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D85" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F85">
         <v>27.128091999999999</v>
@@ -38382,26 +38377,26 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>603</v>
+      </c>
+      <c r="C86" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>605</v>
       </c>
-      <c r="C86" t="s">
+      <c r="B87" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="C87" t="s">
         <v>607</v>
       </c>
-      <c r="B87" t="s">
-        <v>608</v>
-      </c>
-      <c r="C87" t="s">
-        <v>609</v>
-      </c>
       <c r="D87" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F87">
         <v>4.2282419999999998</v>
@@ -38500,18 +38495,18 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>608</v>
+      </c>
+      <c r="B88" t="s">
+        <v>609</v>
+      </c>
+      <c r="C88" t="s">
         <v>610</v>
       </c>
-      <c r="B88" t="s">
-        <v>611</v>
-      </c>
-      <c r="C88" t="s">
-        <v>612</v>
-      </c>
       <c r="D88" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F88">
         <v>22.899849</v>
@@ -38610,26 +38605,26 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>611</v>
+      </c>
+      <c r="C89" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>580</v>
+      </c>
+      <c r="B90" t="s">
         <v>613</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>582</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>615</v>
-      </c>
-      <c r="C90" t="s">
-        <v>616</v>
-      </c>
-      <c r="D90" t="s">
-        <v>617</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -38728,18 +38723,18 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B91" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C91" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D91" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F91">
         <v>225.07347100000001</v>
@@ -38838,18 +38833,18 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B92" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C92" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D92" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F92">
         <v>0.172512</v>
@@ -38948,18 +38943,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B93" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C93" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D93" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F93">
         <v>225.24598700000001</v>
@@ -39069,20 +39064,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>225</v>
       </c>
@@ -39090,7 +39085,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>232</v>
       </c>
@@ -39107,7 +39102,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -39124,7 +39119,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -39141,7 +39136,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -39158,7 +39153,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -39175,7 +39170,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -39192,7 +39187,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -39209,7 +39204,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -39226,7 +39221,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -39243,7 +39238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -39260,7 +39255,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -39277,7 +39272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -39294,7 +39289,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -39311,7 +39306,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2030</v>
       </c>
@@ -39328,7 +39323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2030</v>
       </c>
@@ -39345,7 +39340,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2030</v>
       </c>
@@ -39362,7 +39357,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2030</v>
       </c>
@@ -39379,7 +39374,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2030</v>
       </c>
@@ -39396,7 +39391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -39413,7 +39408,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2040</v>
       </c>
@@ -39430,7 +39425,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2040</v>
       </c>
@@ -39447,7 +39442,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2040</v>
       </c>
@@ -39464,7 +39459,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2040</v>
       </c>
@@ -39481,7 +39476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2040</v>
       </c>
@@ -39498,7 +39493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2040</v>
       </c>
@@ -39515,7 +39510,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2050</v>
       </c>
@@ -39532,7 +39527,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2050</v>
       </c>
@@ -39549,7 +39544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2050</v>
       </c>
@@ -39566,7 +39561,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2050</v>
       </c>
@@ -39583,7 +39578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2050</v>
       </c>
@@ -39600,7 +39595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2050</v>
       </c>
@@ -39628,20 +39623,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>225</v>
       </c>
@@ -39649,7 +39644,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>232</v>
       </c>
@@ -39666,7 +39661,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -39683,7 +39678,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -39700,7 +39695,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -39717,7 +39712,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -39734,7 +39729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -39751,7 +39746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -39768,7 +39763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2030</v>
       </c>
@@ -39785,7 +39780,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2030</v>
       </c>
@@ -39802,7 +39797,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2030</v>
       </c>
@@ -39819,7 +39814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2040</v>
       </c>
@@ -39836,7 +39831,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2040</v>
       </c>
@@ -39853,7 +39848,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2040</v>
       </c>
@@ -39870,7 +39865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2050</v>
       </c>
@@ -39887,7 +39882,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2050</v>
       </c>
@@ -39904,7 +39899,7 @@
         <v>3.9200000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2050</v>
       </c>
@@ -39934,13 +39929,13 @@
       <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -39977,7 +39972,7 @@
       <c r="AF1" s="39"/>
       <c r="AG1" s="39"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
         <v>213</v>
       </c>
@@ -40014,7 +40009,7 @@
       <c r="AF2" s="58"/>
       <c r="AG2" s="58"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>178</v>
       </c>
@@ -40115,7 +40110,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -40245,7 +40240,7 @@
         <v>40071282.668660283</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -40375,7 +40370,7 @@
         <v>56317673.623997077</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>207</v>
       </c>
@@ -40505,7 +40500,7 @@
         <v>123207684.33293828</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>179</v>
       </c>
@@ -40525,7 +40520,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>260</v>
       </c>
@@ -40550,7 +40545,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>261</v>
       </c>
@@ -40575,7 +40570,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>273</v>
       </c>
@@ -40600,7 +40595,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>206</v>
       </c>
@@ -40701,7 +40696,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -40834,7 +40829,7 @@
         <v>2725.6794223237598</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>265</v>
       </c>
@@ -40967,7 +40962,7 @@
         <v>866.4101256527415</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>274</v>
       </c>
@@ -41100,7 +41095,7 @@
         <v>140.49893929503918</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>212</v>
       </c>
@@ -41201,7 +41196,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -41331,7 +41326,7 @@
         <v>6.8020768011389649E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -41461,7 +41456,7 @@
         <v>1.538433798663804E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>207</v>
       </c>
@@ -41591,7 +41586,7 @@
         <v>1.1403423419222421E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
         <v>223</v>
       </c>
@@ -41628,7 +41623,7 @@
       <c r="AF23" s="58"/>
       <c r="AG23" s="58"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>214</v>
       </c>
@@ -41729,7 +41724,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -41859,7 +41854,7 @@
         <v>15396627.767764671</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -41989,7 +41984,7 @@
         <v>14690609.362540511</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>179</v>
       </c>
@@ -42009,7 +42004,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>260</v>
       </c>
@@ -42034,7 +42029,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>261</v>
       </c>
@@ -42059,7 +42054,7 @@
         <v>-475</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>206</v>
       </c>
@@ -42160,7 +42155,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>264</v>
       </c>
@@ -42293,7 +42288,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>265</v>
       </c>
@@ -42426,7 +42421,7 @@
         <v>-475</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>212</v>
       </c>
@@ -42527,7 +42522,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -42657,7 +42652,7 @@
         <v>9.7423930916904569E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -42787,7 +42782,7 @@
         <v>-3.2333580471562971E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>224</v>
       </c>
@@ -42824,7 +42819,7 @@
       <c r="AF40" s="39"/>
       <c r="AG40" s="39"/>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
         <v>213</v>
       </c>
@@ -42861,12 +42856,12 @@
       <c r="AF41" s="58"/>
       <c r="AG41" s="58"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>254</v>
       </c>
@@ -42874,7 +42869,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>255</v>
       </c>
@@ -42882,7 +42877,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>257</v>
       </c>
@@ -42905,7 +42900,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>260</v>
       </c>
@@ -42930,7 +42925,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>261</v>
       </c>
@@ -42955,7 +42950,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>259</v>
       </c>
@@ -42981,7 +42976,7 @@
         <v>60.296369222717402</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>258</v>
       </c>
@@ -43082,7 +43077,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>264</v>
       </c>
@@ -43215,7 +43210,7 @@
         <v>5.1516277741514358</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>265</v>
       </c>
@@ -43348,7 +43343,7 @@
         <v>15.454883322454307</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>266</v>
       </c>
@@ -43481,7 +43476,7 @@
         <v>57.154778108279608</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>241</v>
       </c>
@@ -43582,7 +43577,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -43715,7 +43710,7 @@
         <v>7.42054085818039E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -43848,7 +43843,7 @@
         <v>5.9503274523152538E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="57" t="s">
         <v>223</v>
       </c>
@@ -43885,12 +43880,12 @@
       <c r="AF61" s="58"/>
       <c r="AG61" s="58"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>254</v>
       </c>
@@ -43898,7 +43893,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>255</v>
       </c>
@@ -43906,7 +43901,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>257</v>
       </c>
@@ -43929,7 +43924,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>260</v>
       </c>
@@ -43955,7 +43950,7 @@
       </c>
       <c r="K68" s="41"/>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>261</v>
       </c>
@@ -43980,7 +43975,7 @@
         <v>17.333333333333332</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>259</v>
       </c>
@@ -44006,7 +44001,7 @@
         <v>184.45</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>258</v>
       </c>
@@ -44107,7 +44102,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -44240,7 +44235,7 @@
         <v>18.238974531600562</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>265</v>
       </c>
@@ -44373,7 +44368,7 @@
         <v>16.235432985204525</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>266</v>
       </c>
@@ -44506,7 +44501,7 @@
         <v>175.44785108659573</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>241</v>
       </c>
@@ -44607,7 +44602,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -44740,7 +44735,7 @@
         <v>7.1784875139267208E-5</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -44885,19 +44880,19 @@
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B1" s="1">
         <v>2019</v>
@@ -44998,9 +44993,9 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B2" s="124">
         <v>0</v>
@@ -45100,9 +45095,9 @@
       </c>
       <c r="AI2" s="122"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B3" s="123">
         <f>B4</f>
@@ -45233,7 +45228,7 @@
         <v>6.8020768011389649E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -45366,9 +45361,9 @@
         <v>6.8020768011389649E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B5" s="108">
         <f>Calculations!B20</f>
@@ -45499,9 +45494,9 @@
         <v>1.538433798663804E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B6" s="123">
         <f>B4</f>
@@ -45632,7 +45627,7 @@
         <v>6.8020768011389649E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>207</v>
       </c>
@@ -45765,9 +45760,9 @@
         <v>1.1403423419222421E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B8" s="123">
         <f>B5</f>
@@ -45898,9 +45893,9 @@
         <v>1.538433798663804E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B9" s="123">
         <f>B5</f>
@@ -46031,9 +46026,9 @@
         <v>1.538433798663804E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B10" s="123">
         <f>B4</f>
@@ -46164,9 +46159,9 @@
         <v>6.8020768011389649E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B11" s="123">
         <f>B4</f>
@@ -46314,15 +46309,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B1" s="1">
         <v>2019</v>
@@ -46423,9 +46418,9 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B2" s="124">
         <v>0</v>
@@ -46525,9 +46520,9 @@
       </c>
       <c r="AI2" s="122"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B3" s="123">
         <f>B4</f>
@@ -46658,7 +46653,7 @@
         <v>9.7423930916904569E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -46791,9 +46786,9 @@
         <v>9.7423930916904569E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B5" s="108">
         <f>Calculations!B38</f>
@@ -46924,9 +46919,9 @@
         <v>-3.2333580471562971E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B6" s="123">
         <f>B4</f>
@@ -47057,7 +47052,7 @@
         <v>9.7423930916904569E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>207</v>
       </c>
@@ -47190,9 +47185,9 @@
         <v>-3.2333580471562971E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B8" s="123">
         <f>B5</f>
@@ -47323,9 +47318,9 @@
         <v>-3.2333580471562971E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B9" s="123">
         <f>B5</f>
@@ -47456,9 +47451,9 @@
         <v>-3.2333580471562971E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B10" s="123">
         <f>B4</f>
@@ -47589,9 +47584,9 @@
         <v>9.7423930916904569E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B11" s="123">
         <f>B4</f>
